--- a/xlsx/日本人_intext.xlsx
+++ b/xlsx/日本人_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>日本人</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -131,31 +131,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦</t>
+    <t>密克罗尼西亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E9%81%93%E6%95%99</t>
@@ -245,31 +245,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>國籍</t>
+    <t>国籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>外國人</t>
+    <t>外国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B8%E5%8C%96</t>
   </si>
   <si>
-    <t>歸化</t>
+    <t>归化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B0%91%E6%97%8F%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>日本民族問題</t>
+    <t>日本民族问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E6%97%8F</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E5%9C%8B</t>
   </si>
   <si>
-    <t>琉球國</t>
+    <t>琉球国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%9C%9F</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%A9%E6%96%87%E4%BA%BA</t>
   </si>
   <si>
-    <t>繩文人</t>
+    <t>绳文人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E4%BA%BA</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E5%9B%A0%E5%AD%90</t>
   </si>
   <si>
-    <t>遺傳因子</t>
+    <t>遗传因子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%B4%A2%E7%93%A6%E4%BA%BA</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>澳洲人種</t>
+    <t>澳洲人种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>南島語族</t>
+    <t>南岛语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E4%BA%BA</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E8%91%89%E6%A8%B9%E6%9E%97%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>照葉樹林文化</t>
+    <t>照叶树林文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%A3%E6%97%8F</t>
@@ -425,19 +425,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%92%99%E5%8F%A4%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>新蒙古人種</t>
+    <t>新蒙古人种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%8C%E7%94%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>彌生人</t>
+    <t>弥生人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%BC%E4%BA%BA</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9D%A6%E5%A4%B7%E4%BA%BA</t>
   </si>
   <si>
-    <t>蝦夷人</t>
+    <t>虾夷人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AD%E5%9B%BD</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%A2%B3</t>
   </si>
   <si>
-    <t>古墳</t>
+    <t>古坟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%A6%E5%AE%B6</t>
@@ -479,25 +479,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>人類學家</t>
+    <t>人类学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9D%B1%E5%8C%97</t>
   </si>
   <si>
-    <t>中國東北</t>
+    <t>中国东北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%97%8F</t>
   </si>
   <si>
-    <t>漢族</t>
+    <t>汉族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%B6%8A%E4%BA%BA</t>
   </si>
   <si>
-    <t>吳越人</t>
+    <t>吴越人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%8F%A4%E6%96%AF%E4%BA%BA</t>
@@ -515,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%BA</t>
   </si>
   <si>
-    <t>馬來人</t>
+    <t>马来人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>中南半島</t>
+    <t>中南半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%91%A8</t>
@@ -545,31 +545,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>戰國</t>
+    <t>战国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>秦國</t>
+    <t>秦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>燕國</t>
+    <t>燕国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E5%9C%8B</t>
   </si>
   <si>
-    <t>齊國</t>
+    <t>齐国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%9C%8B</t>
   </si>
   <si>
-    <t>越國</t>
+    <t>越国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -581,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9D%B1%E9%83%A8</t>
   </si>
   <si>
-    <t>中國東部</t>
+    <t>中国东部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%94%E6%9B%BC%E4%BA%BA</t>
   </si>
   <si>
-    <t>安達曼人</t>
+    <t>安达曼人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E8%89%B2%E4%BA%BA%E7%A7%8D</t>
@@ -611,9 +611,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>朝鮮族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AE%E9%BB%91%E4%BA%BA</t>
   </si>
   <si>
@@ -635,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%8A%E8%A5%B2%E6%97%8F</t>
   </si>
   <si>
-    <t>熊襲族</t>
+    <t>熊袭族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>日本歷史</t>
+    <t>日本历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E4%BA%BA%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E%E5%BE%97%E4%B8%BB</t>
   </si>
   <si>
-    <t>日本人諾貝爾獎得主</t>
+    <t>日本人诺贝尔奖得主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -689,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%B0%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>阿爾泰語系</t>
+    <t>阿尔泰语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%9C%9D%E9%AE%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>日本朝鮮族</t>
+    <t>日本朝鲜族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E7%BD%97%E5%85%8B%E6%97%8F</t>
@@ -719,13 +716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%97%8F%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>漢藏語系</t>
+    <t>汉藏语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>日本華人</t>
+    <t>日本华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A%E8%AF%AD%E7%B3%BB</t>
@@ -743,13 +740,13 @@
     <t>https://ja.wikipedia.org/wiki/%E3%82%A4%E3%83%B3%E3%83%89%E3%82%B7%E3%83%8A%E9%9B%A3%E6%B0%91</t>
   </si>
   <si>
-    <t>ja-インドシナ難民</t>
+    <t>ja-インドシナ难民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>印歐語系</t>
+    <t>印欧语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E6%97%8F</t>
@@ -761,7 +758,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%AC%A7%E7%B1%B3%E7%B3%BB%E5%B3%B6%E6%B0%91</t>
   </si>
   <si>
-    <t>ja-欧米系島民</t>
+    <t>ja-欧米系岛民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B2%9B%E8%AF%AD%E7%B3%BB</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E6%97%A5%E8%8F%B2%E5%BE%8B%E8%B3%93%E4%BA%BA</t>
   </si>
   <si>
-    <t>在日菲律賓人</t>
+    <t>在日菲律宾人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E6%97%A5%E5%8D%B0%E5%B0%BC%E4%BA%BA</t>
@@ -791,13 +788,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4010,7 +4007,7 @@
         <v>197</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4036,10 +4033,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4065,10 +4062,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4123,10 +4120,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4181,10 +4178,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4210,10 +4207,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4268,10 +4265,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4297,10 +4294,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4326,10 +4323,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4355,10 +4352,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -4384,10 +4381,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>17</v>
@@ -4413,10 +4410,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4442,10 +4439,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4471,10 +4468,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4500,10 +4497,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4558,10 +4555,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4587,10 +4584,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4616,10 +4613,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4645,10 +4642,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4674,10 +4671,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4703,10 +4700,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4732,10 +4729,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4761,10 +4758,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4790,10 +4787,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4819,10 +4816,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4848,10 +4845,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4877,10 +4874,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4906,10 +4903,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4935,10 +4932,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4964,10 +4961,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5022,10 +5019,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5051,10 +5048,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>

--- a/xlsx/日本人_intext.xlsx
+++ b/xlsx/日本人_intext.xlsx
@@ -29,7 +29,7 @@
     <t>日本</t>
   </si>
   <si>
-    <t>政策_政策_政治_日本人</t>
+    <t>体育运动_体育运动_规则_日本人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1200,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -4390,7 +4390,7 @@
         <v>218</v>
       </c>
       <c r="G112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
